--- a/tesztesetek.xlsx
+++ b/tesztesetek.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerim\Documents\Codecool\Projects\1TA\automationExam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1B3C16-B259-40C0-AD2A-1C170C750D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236F4567-E820-4DBD-B6C0-FB2C95D90A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -437,7 +437,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,13 +472,6 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
     </font>
   </fonts>
   <fills count="4">
@@ -528,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -555,7 +548,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -919,8 +911,8 @@
   <dimension ref="A1:Y999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -1340,7 +1332,7 @@
       <c r="B9" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>83</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -7932,7 +7924,7 @@
       <formula>"Hiba"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" sqref="K2:K21" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Siker,Nem futtatható,Hiba"</formula1>
     </dataValidation>
